--- a/Foundation/org.egovframe.rte.fdl.excel/testdata/testUseTemplate2.xlsx
+++ b/Foundation/org.egovframe.rte.fdl.excel/testdata/testUseTemplate2.xlsx
@@ -1,20 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EGOV2022/egovframe-runtime-4.1.0/Foundation/org.egovframe.rte.fdl.excel/testdata/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB79474-CB1D-7948-9ABE-A282A0058337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="7605" windowWidth="17775" xWindow="840" yWindow="780"/>
+    <workbookView xWindow="6280" yWindow="500" windowWidth="29560" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Timesheet" r:id="rId1" sheetId="1"/>
+    <sheet name="Timesheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jung Jinho</author>
+  </authors>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>Weekly Timesheet</t>
   </si>
@@ -89,48 +114,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;jx:forEach var="persons" items="${persons}"&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[C4+D4+E4+F4+G4+H4+I4]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(J4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(C4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(D4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(E4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(F4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(G4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(H4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(I4)]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t/>
   </si>
   <si>
     <t>Yegor Kozlov</t>
@@ -143,17 +127,14 @@
   </si>
   <si>
     <t>GB</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -178,6 +159,36 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -229,44 +240,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="2" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="표준" xfId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -277,10 +291,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -315,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,9 +362,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,6 +414,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -438,7 +486,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -447,13 +495,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -463,7 +511,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -472,7 +520,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -481,7 +529,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -491,12 +539,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -527,7 +575,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -546,7 +594,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -558,23 +606,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.0" collapsed="false"/>
-    <col min="3" max="9" customWidth="true" width="6.0" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.6640625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.83203125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.6640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.83203125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.6640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.6640625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.0"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="28.1640625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="45" r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="45.0" customHeight="true">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -588,7 +644,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row customHeight="1" ht="39.950000000000003" r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="40.0" customHeight="true">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,12 +676,12 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="4" spans="1:10" x14ac:dyDescent="0.3" ht="16.5" customHeight="true">
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="17.0" customHeight="true">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>5.0</v>
@@ -648,16 +704,16 @@
       <c r="I3" s="5" t="n">
         <v>6.0</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <f>C3+D3+E3+F3+G3+H3+I3</f>
+      <c r="J3" s="2">
+        <f>SUM(C3:I3)</f>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="true">
+    <row r="4" spans="1:10" ht="17.0" customHeight="true">
       <c r="A4" s="5" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>4.0</v>
@@ -676,37 +732,37 @@
       <c r="I4" s="5" t="n">
         <v>4.0</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <f>C4+D4+E4+F4+G4+H4+I4</f>
+      <c r="J4" s="2">
+        <f>SUM(C4:I4)</f>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3" ht="35.1" customHeight="true">
+    <row r="5" ht="35.0" customHeight="true">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2">
         <f>SUM(C3:C4)</f>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="2">
         <f>SUM(D3:D4)</f>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2">
         <f>SUM(E3:E4)</f>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2">
         <f>SUM(F3:F4)</f>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="2">
         <f>SUM(G3:G4)</f>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="2">
         <f>SUM(H3:H4)</f>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="2">
         <f>SUM(I3:I4)</f>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="3">
         <f>SUM(J3:J4)</f>
       </c>
     </row>
@@ -716,7 +772,8 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>